--- a/components/download_templates/templates/Quality_Assurance_KPI_CHC.xlsx
+++ b/components/download_templates/templates/Quality_Assurance_KPI_CHC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp Excel Import Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF28801-998B-4375-87E6-A00864ED218F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5943576-2CFA-47BD-9F93-A32D02E661EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C888390B-8749-4A56-B74B-382930DD774A}"/>
   </bookViews>
@@ -409,12 +409,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -424,6 +418,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,32 +741,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4911D494-DCAA-4CCA-A48A-2B4F9FFF8A9A}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -786,9 +786,7 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10">
-        <v>20.6</v>
-      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -797,9 +795,7 @@
       <c r="B5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -808,9 +804,7 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -819,9 +813,7 @@
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -830,9 +822,7 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -841,9 +831,7 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10">
-        <v>6</v>
-      </c>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -852,9 +840,7 @@
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10">
-        <v>7</v>
-      </c>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -872,9 +858,7 @@
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10">
-        <v>8</v>
-      </c>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -883,9 +867,7 @@
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10">
-        <v>9</v>
-      </c>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -894,9 +876,7 @@
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10">
-        <v>10</v>
-      </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -905,9 +885,7 @@
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10">
-        <v>11</v>
-      </c>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -916,9 +894,7 @@
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10">
-        <v>12</v>
-      </c>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -936,9 +912,7 @@
       <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10">
-        <v>13</v>
-      </c>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -947,9 +921,7 @@
       <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10">
-        <v>14</v>
-      </c>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -958,9 +930,7 @@
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="10">
-        <v>15</v>
-      </c>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -969,9 +939,7 @@
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10">
-        <v>16</v>
-      </c>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -980,9 +948,7 @@
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10">
-        <v>17</v>
-      </c>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -991,9 +957,7 @@
       <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="10">
-        <v>18</v>
-      </c>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -1002,9 +966,7 @@
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="10">
-        <v>19</v>
-      </c>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -1013,9 +975,7 @@
       <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="10">
-        <v>20</v>
-      </c>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -1033,9 +993,7 @@
       <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="10">
-        <v>21</v>
-      </c>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1044,9 +1002,7 @@
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="10">
-        <v>22</v>
-      </c>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1055,9 +1011,7 @@
       <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="10">
-        <v>23</v>
-      </c>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -1066,9 +1020,7 @@
       <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="10">
-        <v>24</v>
-      </c>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -1077,9 +1029,7 @@
       <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="10">
-        <v>25</v>
-      </c>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -1088,9 +1038,7 @@
       <c r="B32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="10">
-        <v>26</v>
-      </c>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1108,9 +1056,7 @@
       <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="10">
-        <v>27</v>
-      </c>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -1119,9 +1065,7 @@
       <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="10">
-        <v>28</v>
-      </c>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -1130,27 +1074,25 @@
       <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="10">
-        <v>29</v>
-      </c>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -1159,9 +1101,7 @@
       <c r="B39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="10">
-        <v>31</v>
-      </c>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -1170,9 +1110,7 @@
       <c r="B40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="10">
-        <v>32</v>
-      </c>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -1181,9 +1119,7 @@
       <c r="B41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="10">
-        <v>33</v>
-      </c>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -1192,9 +1128,7 @@
       <c r="B42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="10">
-        <v>34</v>
-      </c>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -1203,12 +1137,10 @@
       <c r="B43" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="10">
-        <v>35</v>
-      </c>
+      <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="12"/>
+      <c r="C44" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
